--- a/Data Collection/Persons/Aaron Troschke/articles_Troschke_Jan_1.xlsx
+++ b/Data Collection/Persons/Aaron Troschke/articles_Troschke_Jan_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Persons/Aaron Troschke/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_EC42FECBCB79285B05C8C2412ABE0FF340A6939E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED17E258-C860-49DB-B9F9-55DFDBA58AC9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="300">
   <si>
     <t>title</t>
   </si>
@@ -126,12 +132,990 @@
   <si>
     <t>Die Nutzung dieses Inhaltes aus Ihrem Land ist gesperrt.</t>
   </si>
+  <si>
+    <t>"Tatort" im Studio: Jasna Fritzi Bauer und Ulrike Folkerts bei "Wer weiß denn sowas?" / Das Wissensquiz...</t>
+  </si>
+  <si>
+    <t>20 Jan 2021</t>
+  </si>
+  <si>
+    <t>startete Aaron Troschke seine Karriere, die mit dem Sieg bei "Promi Big Brother" weiterging. Heute hat der schlagfertige Berliner als YouTuber über eine Million ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/6694/4817366</t>
+  </si>
+  <si>
+    <t>ARD Das Erste"Tatort" im Studio: Jasna Fritzi Bauer und Ulrike Folkerts bei "Wer weiß denn sowas?"
+Im "Wer weiß denn sowas?
+"-Studio trifft er auf den Dresdner Komiker Olaf Schubert, sein Markenzeichen ist der gelb-grüne Rauten-Pullunder, der unter anderem regelmäßig in der "heute-show" für Lacher sorgt.
+Am Dienstag sind beide an der Seite der Teamchefs Bernhard Hoëcker und Elton den richtigen Antworten auf spannende Quizfragen auf der Spur.
+Januar - Jasna Fritzi Bauer und Ulrike FolkertsWer mitspielen und mitgewinnen möchte, kann sich die ARD-Quiz-App unter www.daserste.de/quiz-app kostenlos herunterladen.</t>
+  </si>
+  <si>
+    <t>Berliner Fußballprofi wird Gesellschafter bei eRockit Systems</t>
+  </si>
+  <si>
+    <t>Velobiz</t>
+  </si>
+  <si>
+    <t>26 Jan 2021</t>
+  </si>
+  <si>
+    <t>Erst im November hatte eRockit, Herstellers des E-Zweirads, das eine Mischung aus Motorrad und Pedelec darstellt, mit Moderator Aaron Troschke einen ...</t>
+  </si>
+  <si>
+    <t>https://www.velobiz.de/news/berliner-fussballprofi-wird-gesellschafter-bei-erockit-systems-veloQXJ0aWNsZS8yNDQwNAbiz</t>
+  </si>
+  <si>
+    <t>Zum Schutz von Gesundheit und Umwelt: Atemschutzmasken &amp; Co. sicher entsorgen</t>
+  </si>
+  <si>
+    <t>27 Jan 2021</t>
+  </si>
+  <si>
+    <t>Youtuber Aaron Troschke von "Hey Aaron!!!" dreht Video für die Kampagne "Mülltrennung wirkt". mehr. Das könnte Sie auch interessieren. Das könnte Sie auch ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/142102/4823084</t>
+  </si>
+  <si>
+    <t>Initiative "Mülltrennung wirkt"Zum Schutz von Gesundheit und Umwelt: Atemschutzmasken &amp; Co. sicher entsorgenBild-InfosDownloadKöln (ots)Das Tragen medizinischer Masken, dazu zählen OP-Masken sowie Mund-Nase-Bedeckungen mit den Standards FFP2 und KN95/N95, ist in Geschäften und öffentlichen Verkehrsmitteln bundesweit Pflicht.
+Umso wichtiger ist es, zum Schutz von Gesundheit und Umwelt bei der Entsorgung von gebrauchten Atemschutzmasken, Einmalhandschuhen und anderen Hygieneprodukten aus dem Corona-Alltag auf die richtige und sichere Mülltrennung zu achten.
+Zum Schutz vor Ansteckung und auch unserer Umwelt ist es daher wichtig, Atemschutzmasken sicher und richtig zu entsorgen", erklärt der Experte für Abfallentsorgung.
+Die Grafik und die Pressemitteilung zum Download sowie weitere Informationen zum Thema richtige Mülltrennung finden Sie unter: www.mülltrennung-wirkt.de/aktuelles.
+Mit der richtigen Trennung von Restmüll und Verpackungen können wir alle einen wirkungsvollen Beitrag zum Ressourcen- und Klimaschutz leisten.</t>
+  </si>
+  <si>
+    <t>Janine Pink kann's nicht glauben: Sex mit 10.000 Menschen? "Ich denke, dass es mehr sind!"</t>
+  </si>
+  <si>
+    <t>TAG24</t>
+  </si>
+  <si>
+    <t>18 Jan 2021</t>
+  </si>
+  <si>
+    <t>In den anderen Folgen sind unter anderem Aaron Troschke (31), Bonnie Strange (34), Faisal Kawusi (29) sowie Benni und Dennis Wolter (30) von World Wide ...</t>
+  </si>
+  <si>
+    <t>https://www.tag24.de/unterhaltung/promis/janine-pink/mask-off-joyn-janine-pink-kanns-nicht-glauben-sex-mit-10000-menschen-ich-denke-dass-es-mehr-sind-1800460</t>
+  </si>
+  <si>
+    <t>18.01.2021 10:52 37.631 Janine Pink kann's nicht glauben: Sex mit 10.000 Menschen?
+© Joyn/Hans &amp; Franz In Sachen Liebe lief es bei Janine Pink bislang eher semi-optimal.
+© Joyn/Hans &amp; Franz Dass einer der fünf Männer und drei Frauen tatsächlich Sex mit 10.000 verschiedenen Menschen hatte, ist für Janine Pink zu diesem Zeitpunkt unerklärlich.
+Sie hatte mit 10.000 Männern Sex - mindestens.
+Janine Pink ist baff und zieht ein Fazit hinter dem "Mask OFF"-Experiment: "Erst hinter die Fassade gucken und nicht so oberflächlich denken."</t>
+  </si>
+  <si>
+    <t>ACAB, Kiffer und Co: Mit diesem abgefahrenen Recruiting-Film zeigt die Berliner Polizei Haltung</t>
+  </si>
+  <si>
+    <t>Horizont</t>
+  </si>
+  <si>
+    <t>29 Jan 2021</t>
+  </si>
+  <si>
+    <t>Das ist die neue Imagekampagne der Polizei Berlin von Glow. Youtuber Aaron Troschke (r.) als Praktikant bei der Polizei Berlin. © Aaron Troschke / Youtube.</t>
+  </si>
+  <si>
+    <t>https://www.horizont.net/agenturen/nachrichten/acab-kiffer-und-co-mit-diesem-abgefahrenen-recruiting-film-zeigt-die-berliner-polizei-haltung-188873</t>
+  </si>
+  <si>
+    <t>© Polizei Berlin Sogar gekifft wird in dem neuen Recruiting-Werbefilm der Berliner PolizeiDie Berliner Polizei ist bereits seit einigen Jahren für ihre originellen, ungewöhnlichen und bisweien schrägen Werbeauftritte bekannt.
+Nach einem Corona-Song im vergangenen Jahr legt Glow Berlin für den Kunden jetzt einen Recruiting-Film vor, der lässiger kaum sein könnte - Hiphop-Beats, "ACAB", Kiffen und Bruce Willis inklusive.
+Und trotz aller Coolness will die Berliner Polizei mit der Kampagne vor allem auch Haltung zeigen.</t>
+  </si>
+  <si>
+    <t>Studentin verspielt bei «Wer wird Millionär?» Chance auf 250'000 Euro</t>
+  </si>
+  <si>
+    <t>19 Jan 2021</t>
+  </si>
+  <si>
+    <t>https://www.blick.ch/people-tv/international/zitterpartie-bei-wer-wird-millionaer-studentin-verspielt-chance-auf-250000-euro-id16300017.html</t>
+  </si>
+  <si>
+    <t>Laufband-Talk mit Vanessa Mai startet in die zweite Staffel</t>
+  </si>
+  <si>
+    <t>17 Feb 2021</t>
+  </si>
+  <si>
+    <t>Weitere Gäste auf dem Laufband sind Judith Williams (Geschäftsfrau und Beauty-Guru), Ross Antony (Musiker), Aaron Troschke (Webvideoproduzent und ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/7169/4840844</t>
+  </si>
+  <si>
+    <t>SWR - SüdwestrundfunkLaufband-Talk mit Vanessa Mai startet in die zweite StaffelBild-InfosDownloadEin weiterer MedieninhaltStuttgart (ots)Folge 1 am 18.
+Und weil es so gut läuft für das sportliche Talkformat, gibt es alle Folgen - auch die der ersten Staffel - zusätzlich als Podcast.
+Laufen und talken mit Vanessa MaiWie im Sportstudio startet der Laufband-Talk "On Mai Way" mit einer lockeren Aufwärmrunde.
+Folge "On Mai Way" wird Vanessa Mai der Gesprächsstoff nicht ausgehen.
+Auf SWR.de/schlager stehen alle Schlager-News, es gibt Links zu den aktuellen Musikvideos und zur Rubrik "Schlagerstars und die Liebe".</t>
+  </si>
+  <si>
+    <t>«Wer wird Millionär?»-Kandidatin Jasmin Jasper wird angefeindet</t>
+  </si>
+  <si>
+    <t>16 Feb 2021</t>
+  </si>
+  <si>
+    <t>Aaron Troschke erklärt «Wer wird Millionär?»-Lüge. Gewinn nicht verschenkt. Aaron Troschke erklärt «Wer wird Millionär?»-Lüge. Doch weit gefehlt: Nach der ...</t>
+  </si>
+  <si>
+    <t>https://www.blick.ch/people-tv/international/jauch-ist-genauso-genervt-wie-die-zuschauer-wer-wird-millionaer-kandidatin-wird-angefeindet-id16351364.html</t>
+  </si>
+  <si>
+    <t>Max Kruse und Aaron Troschke eröffnen Zweiradsaison 2021 mit einzigartigem Elektromotorrad</t>
+  </si>
+  <si>
+    <t>12 Mar 2021</t>
+  </si>
+  <si>
+    <t>FC Union) und Entertainer Aaron Troschke („Hey Aaron“) in die neue Saison. Die beiden Stars sind Investoren bei dem Unternehmen, das in Hennigsdorf bei ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/104918/4861983</t>
+  </si>
+  <si>
+    <t>eROCKIT Systems GmbHMax Kruse und Aaron Troschke eröffnen Zweiradsaison 2021 mit einzigartigem ElektromotorradBild-InfosDownload5 weitere MedieninhalteEin DokumentMax Kruse und Aaron Troschke eröffnen Zweiradsaison 2021 mit einzigartigem ElektromotorradRasant, sportlich und umweltgerecht.
+eROCKIT ist die neue, individuelle Freiheit auf zwei Rädern.
+Die beiden Stars sind Investoren bei dem Unternehmen, das in Hennigsdorf bei Berlin das eROCKIT produziert.
+Über das eROCKITIm weltweit boomenden Markt der Elektromobilität ist das eROCKIT sehr besonders.
+Mit einem Verkaufspreis von 11850 € ist das eROCKIT eines der günstigsten Elektromotorräder „Made in Germany“.</t>
+  </si>
+  <si>
+    <t>Ein E-Mobil aus Hennigsdorf: Union-Star Max Kruse steigt auf das E-Rockit</t>
+  </si>
+  <si>
+    <t>MAZ</t>
+  </si>
+  <si>
+    <t>FC Union Berlin und Entertainer Aaron Troschke stiegen für einen Fototermin an der Berliner East-Side-Gallery auf das E-Rockit, das in Hennigsdorf produziert ...</t>
+  </si>
+  <si>
+    <t>https://www.maz-online.de/Lokales/Oberhavel/Hennigsdorf/Ein-E-Mobil-aus-Hennigsdorf-Union-Star-Max-Kruse-steigt-auf-das-E-Rockit</t>
+  </si>
+  <si>
+    <t>Bundesligaspieler Max Kruse vom 1.
+FC Union Berlin und Entertainer Aaron Troschke stiegen für einen Fototermin an der Berliner East-Side-Gallery auf das E-Rockit, das in Hennigsdorf produziert wurde.</t>
+  </si>
+  <si>
+    <t>Hat der Lamborghini ausgedient? Darum fährt Max Kruse auf "das schnellste Fahrrad der Welt" ab</t>
+  </si>
+  <si>
+    <t>11 Mar 2021</t>
+  </si>
+  <si>
+    <t>Gemeinsam mit Entertainer Aaron Troschke (31) investiert der ehemalige deutsche Nationalspieler in das Brandenburger Startup. Gut möglich, dass der ...</t>
+  </si>
+  <si>
+    <t>https://www.tag24.de/sport/fussball/verein/1-fc-union-berlin/1-fc-union-berlin-max-kruse-mit-neuer-leidenschaft-fuer-elektromotorrad-erockit-1875232</t>
+  </si>
+  <si>
+    <t>FC Union Berlin hat eine neue Leidenschaft entdeckt: das eROCKIT.
+FC Union Berlin hat eine neue Leidenschaft: das Elektromotorrad von eROCKIT , eine Mischung aus Fahrrad und Motorrad.
+Für mich ist es wie das schnellste Fahrrad der Welt", erklärte der 32-Jährige.
+Es hat Spaß gemacht", erzählt der Routinier bei der Eröffnung der Zweiradsaison in einer Medienrunde an der East Side Gallery.
+Es ist nur für den Schwung."</t>
+  </si>
+  <si>
+    <t>Gewitter im Kopf: YouTube-Star Tim will helfen den Tod zu ...</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>Gewitter im Kopf sind in der Serie "Shame Game" gegen Aaron Troschke angetreten und haben bereits drei eigene Songs veröffentlicht. Es läuft mega!</t>
+  </si>
+  <si>
+    <t>https://www.bravo.de/gewitter-im-kopf-youtube-star-tim-will-helfen-den-tod-zu-verarbeiten-389342.html</t>
+  </si>
+  <si>
+    <t>"Gewitter im Kopf"-Star veröffentlicht Solo-SongTim Lehmann und Jan Zimmermann kennen die meisten von euch im Doppelpack von dem YouTube-Kanal Gewitter im Kopf.
+Gewitter im Kopf sind in der Serie "Shame Game" gegen Aaron Troschke angetreten und haben bereits drei eigene Songs veröffentlicht.
+Im BRAVO-Interview haben Gewitter im Kopf bereits verraten, ob sie jemals mit Social Media aufhören würden.
+Der "Gewitter im Kopf"-Star hatte vor vier Tagen verkündet, dass sein Opa verstorben sei.
+Weitere Informationen dazu in unserer Datenschutzerklärung Ja, ich willige ein und möchte den Inhalt sehenMehr zum Thema!--&gt;!--&gt;!--&gt;</t>
+  </si>
+  <si>
+    <t>Lymphödeme erfordern lebenslange Behandlung</t>
+  </si>
+  <si>
+    <t>2 Mar 2021</t>
+  </si>
+  <si>
+    <t>David Guetta, Clueso, LEA und Joy Denalane kommen zu #TVOG · Innovation "Made in Brandenburg": Aaron Troschke besichtigt eROCKIT-Produktion.</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/65315/4853004</t>
+  </si>
+  <si>
+    <t>Mit der richtigen, kontinuierlichen Behandlung können Betroffene gute Therapieergebnisse erzielen.
+Die Symptome lassen sich jedoch durch eine konsequente Behandlung lindern und dem Voranschreiten der Krankheit entgegenwirken.
+Die wirksamste Methode zur Behandlung von Lymphödemen ist die Komplexe Physikalische Entstauungstherapie (KPE).
+So gewinnen Betroffene maximale Unabhängigkeit und können sich möglichst eigenständig und aktiv in die Behandlung einbringen.
+Dem Selbstmanagement gehen Aufklärung und Schulung des Betroffenen über das Krankheitsbild und die Therapiemöglichkeiten voraus.</t>
+  </si>
+  <si>
+    <t>Jackpot in Westfalen geknackt / Rund 11,8 Millionen Euro bei LOTTO 6aus49</t>
+  </si>
+  <si>
+    <t>1 Mar 2021</t>
+  </si>
+  <si>
+    <t>... Aaron Troschke beteiligt sich an eMobility-Unternehmen eROCKIT Systems · Diesel-Fahrer profitieren von Ölpreisrückgang / Benzinpreis gegenüber August.</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/62773/4850933</t>
+  </si>
+  <si>
+    <t>WestLottoJackpot in Westfalen geknacktRund 11,8 Millionen Euro bei LOTTO 6aus49Bild-InfosDownloadMünster (ots)Die letzte Ziehung von LOTTO 6aus49 im Monat Februar brachte den großen Millionengewinn: Ein Spielteilnehmer aus Westfalen wird am Samstag (27.
+Millionär bei LOTTO 6aus49Dieses Ereignis setzt Emotionen frei: Für einen Spielteilnehmer aus Nordrhein-Westfalen war das vergangene Wochenende von besonderen Gefühlen bestimmt.
+Der Glückspilz aus dem Münsterland war bundesweit der einzige Spielteilnehmer, der die oberste Gewinnklasse treffen konnte.
+Gewinn bei SUPER 6Am Wochenende trafen zwei weitere Nordrhein-Westfalen bei der Zusatzlotterie SUPER 6 den obersten Gewinnrang.
+Während der Spielteilnehmer aus dem Raum Bochum ebenfalls in einer WestLotto-Annahmestelle gespielt hatte, gelang dem Glückspilz aus dem Raum Düsseldorf der Volltreffer mit einem Tipp im Internet unter www.westlotto.de.</t>
+  </si>
+  <si>
+    <t>Diskussion in Hennigsdorf: Rugbytrainer Erwin Thiesies und die Staatssicherheit</t>
+  </si>
+  <si>
+    <t>13 Mar 2021</t>
+  </si>
+  <si>
+    <t>Andreas Zurwehme, Geschäftsführer eROCKIT Systems (l.), Entertainer Aaron Troschke und Max. Hennigsdorf - Ein E-Mobil aus Hennigsdorf: Union-Star Max ...</t>
+  </si>
+  <si>
+    <t>https://www.maz-online.de/Lokales/Oberhavel/Hennigsdorf/Diskussion-in-Hennigsdorf-Rugbytrainer-Erwin-Thiesies-und-die-Staatssicherheit</t>
+  </si>
+  <si>
+    <t>Der bekannte Hennigsdorfer Rugbytrainer Erwin Thiesies wird wegen seiner Kooperation mit der Stasi wohl keine Gedenktafel in der Stadt erhalten.
+Ursprünglich sollte er damit für seine Verdienste geehrt werden.</t>
+  </si>
+  <si>
+    <t>"Die Superhändler" bei RTL: So tickt "Rampensau" Johanna Schultz</t>
+  </si>
+  <si>
+    <t>FOCUS Online</t>
+  </si>
+  <si>
+    <t>neben Aaron Troschke als Trödel-Experten und Moderatoren zu sehen war, ging ein Traum für sie in Erfüllung. "Ich wollte früher schon Schauspielerin werden, ...</t>
+  </si>
+  <si>
+    <t>https://www.focus.de/kultur/kino_tv/tv-rtl-troedelshow-so-tickt-superhaendlerin-und-rampensau-johanna-schultz_id_13076322.html</t>
+  </si>
+  <si>
+    <t>Was Horst Lichter im ZDF ist, ist Sükrü Pehlivan bei RTL.
+Regelmäßig dabei ist auch die Hamburger Johanna Schultz.
+Seit August 2018 läuft "Die Superhändler – 4 Räume, ein Deal", die Adaption des britischen Formats "Four Rooms", im RTL-Nachmittagsprogramm.
+Aber es gibt viel Dinge, die mag ich nicht und die kaufe ich nicht.
+"Die Superhändler – 4 Räume, 1 Deal" läuft derzeit ab 16.00 Uhr bei RTL und rund um die Uhr bei TVNOW.</t>
+  </si>
+  <si>
+    <t>eRockit mit einzigartigem Elektromotorrad</t>
+  </si>
+  <si>
+    <t>Motorradreporter</t>
+  </si>
+  <si>
+    <t>15 Mar 2021</t>
+  </si>
+  <si>
+    <t>Das einzigartige, pedalgesteuerte Elektromotorrad startet mit Fußballstar Max Kruse (1. FC Union) und Entertainer Aaron Troschke („Hey Aaron“) in die neue ...</t>
+  </si>
+  <si>
+    <t>https://www.motorradreporter.com/artikel/erockit-mit-einzigartigem-elektromotorrad</t>
+  </si>
+  <si>
+    <t>Rosenthaler am Sachsenring in beiden Läufen in den Punkten!</t>
+  </si>
+  <si>
+    <t>Homeday nun auch Hauptsponsor der Hertha BSC-Kegelabteilung</t>
+  </si>
+  <si>
+    <t>Hertha-Fan und Moderator Aaron Troschke führte durch die ganze Tour, die über Social Media begleitet wurde: “Ich habe mich sehr über die Zusammenarbeit ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/39410/4864550</t>
+  </si>
+  <si>
+    <t>HERTHA BSC GmbH &amp; Co. KGaAHomeday nun auch Hauptsponsor der Hertha BSC-KegelabteilungBild-InfosDownload4 weitere Medieninhalte- #Heimsupport-Kampagne des neuen Hertha-BSC-Trikotsponsors abgeschlossen - Tierpark Berlin: Glückliche Eisbärdame Hertha erhält Fisch-Flatrate - Caritas: Sheltersuits für Obdachlose finanziert - Fan-Gaststätte Olympia-Eck kann in Technik investieren - Moderator Aaron Troschke führte durch die KampagneDer bundesweite Immobilienmakler Homeday, seit Jahresbeginn neuer Hauptsponsor von Hertha BSC, unterstützt mit der #Heimsupport-Tour wichtige Teile der Stadt und des Vereins.
+Daher finden wir es toll, dass Homeday als neuer Trikotsponsor von Hertha BSC Projekte unterstützt, denen der Verein seit vielen Jahre eng verbunden ist”, sagt Ingo Schiller, Geschäftsführer Finanzen bei Hertha BSC.
+In diesem Zusammenhang wird Homeday nun auch offizieller Hauptsponsor der Hertha BSC Kegelabteilung.
+“Wir möchten die besondere Vereinskultur von Hertha BSC in seiner Vielfalt unterstützen, auch abseits von König Fußball”, sagt Dmitri Uvarovski, Co-Founder und CMO von Homeday.
+Zuvor hat Homeday im Rahmen der #Heimsupport-Tour bereits bei der Caritas Station gemacht und 20 Sheltersuits finanziert.</t>
+  </si>
+  <si>
+    <t>Hervorragender Start für "Deutschlands größte Geheimnisse" bei Kabel Eins</t>
+  </si>
+  <si>
+    <t>22 Mar 2021</t>
+  </si>
+  <si>
+    <t>Prominente wie Ruth Moschner, Matthias Distel alias Ikke Hüftgold und Aaron Troschke raten auch nächsten Sonntag um 20:15 Uhr in "Deutschlands größte ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/7841/4869720</t>
+  </si>
+  <si>
+    <t>Kabel EinsHervorragender Start für "Deutschlands größte Geheimnisse" bei Kabel EinsUnterföhring (ots)22.
+Starke Quote für "Deutschlands größte Geheimnisse" am Sonntagabend bei Kabel Eins: Zum Start holte das neue vierteilige Factual-Ranking sehr gute 6,8 Prozent Marktanteil (E. 14-49 J.).
+Prominente wie Ruth Moschner, Matthias Distel alias Ikke Hüftgold und Aaron Troschke raten auch nächsten Sonntag um 20:15 Uhr in "Deutschlands größte Geheimnisse" mit.
+Basis: Marktstandard TVQuelle: AGF in Zusammenarbeit mit GfK | videoSCOPE | ProSiebenSat.1 TV Deutschland | Business IntelligenceErstellt: 22.03.2021 (vorläufig gewichtet: 21.03.2021)Pressekontakt:Nadja SchlüterCommunications &amp; PRNews, Sports, Factual &amp; Fictionphone: +49 (0) 89 95 07 - 7281email: Nadja.Schlueter@seven.oneOriginal-Content von: Kabel Eins, übermittelt durch news aktuell</t>
+  </si>
+  <si>
+    <t>Sorge um Hubert Kah: Wo steckt der Kult-Musiker nur?</t>
+  </si>
+  <si>
+    <t>Bild der Frau</t>
+  </si>
+  <si>
+    <t>17 Mar 2021</t>
+  </si>
+  <si>
+    <t>Er flog gegen Aaron Troschke raus, der die 2. Staffel "Promi Big Brother" am Ende gewann. Der Auftritt beim "Sommerhaus der Stars" war wesentlich kürzer: Er ...</t>
+  </si>
+  <si>
+    <t>https://www.bildderfrau.de/promi-party/article231817321/Sorge-um-Kult-Musiker-Wo-ist-Hubert-Kah.html</t>
+  </si>
+  <si>
+    <t>Doch keiner weiß, wo Hubert Kah derzeit steckt.
+NDW-Star wird vermisst Sorge um Kult-Musiker: Wo ist Hubert Kah?
+So prägt er bis heute die MusikweltFoto: Getty Images/United Archives / Kontributor Bekannt wurde Hubert Kemmler damals mit seiner NDW-Band "Hubert Kah": Klaus Hirschburger, Hubert Kah und Markus Löhr (v.l.n.r.).
+Hubert Kah, bürgerlich Hubert Kemmler, ist vor allem bekannt für seine großen Erfolge aus Zeiten der Neuen Deutschen Welle.
+Promis und Royals Promis und Royals Alle News und Fakten aus der Welt der Royals, Stars und Sternchen.</t>
+  </si>
+  <si>
+    <t>«Deutschlands größte Geheimnisse» startet erfolgreich ...</t>
+  </si>
+  <si>
+    <t>Quotenmeter</t>
+  </si>
+  <si>
+    <t>Promis wie Janin Ullman, Ruth Moschner, Aaron Troschke und Peter Giesel helfen dabei. Und tatsächlich gelang dem Programm ein recht erfolgreicher Auftakt.</t>
+  </si>
+  <si>
+    <t>https://www.quotenmeter.de/n/125680/deutschlands-groesste-geheimnisse-startet-erfolgreich-staffelbestwert-fuer-kitchen-impossible</t>
+  </si>
+  <si>
+    <t>Quotennews«Deutschlands größte Geheimnisse» startet erfolgreich, Staffelbestwert für «Kitchen Impossible»Laura Friedrich von 22.
+Folglich war ein hoher Marktanteil von 4,6 Prozent Marktanteil sicher.
+Folglich war ein hoher Marktanteil von 4,6 Prozent Marktanteil sicher.
+Hinter dem «Tatort» und der «Tagesschau» landete die Sendung bei den 1,15 Millionen Werberelevanten auf Platz drei der gefragtesten Programme des Tages.
+Zuschauer ab 3 Jahren und 14-49 Jahre (Vorläufige Daten), BRD gesamt/ Fernsehpanel D+EU Millionen und Marktanteile in %.</t>
+  </si>
+  <si>
+    <t>Hennigsdorf: Schulstart nach dem Lockdown: Wenn der Klassenraum nur zur Hälfte gefüllt ist</t>
+  </si>
+  <si>
+    <t>https://www.maz-online.de/Lokales/Oberhavel/Hennigsdorf/Hennigsdorf-Schulstart-nach-dem-Lockdown-Wenn-der-Klassenraum-nur-zur-Haelfte-gefuellt-ist</t>
+  </si>
+  <si>
+    <t>HennigsdorfAls Frank Hering am Montagmorgen in den Tag startete, hatte er ein flaues Gefühl im Magen.
+Auf der einen Seite habe sich der Leiter der Hennigsdorfer...</t>
+  </si>
+  <si>
+    <t>Wo steht der schiefste Turm der Welt? In Pisa? Kabel Eins lüftet "Deutschlands größte Geheimnisse"- ab...</t>
+  </si>
+  <si>
+    <t>18 Mar 2021</t>
+  </si>
+  <si>
+    <t>Aaron Troschke, Janin Ullmann, Peter Giesel, Janine Kunze, Eko Fresh, Ruth Moschner und weitere Promis rätseln mit und versuchen, das ein oder andere ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/7841/4866963</t>
+  </si>
+  <si>
+    <t>Kabel Eins lüftet "Deutschlands größte Geheimnisse"- ab 21.
+März 2021 sonntags um 20:15 UhrBild-InfosDownloadUnterföhring (ots)Gibt es in Deutschland einen noch schieferen Turm als im italienischen Pisa?
+Kabel Eins lüftet "Deutschlands größte Geheimnisse" - ab 21.
+"Deutschlands größte Geheimnisse": 4 Folgen ab 21.
+März 2021, sonntags um 20:15 Uhr bei Kabel Eins.</t>
+  </si>
+  <si>
+    <t>Berliner Konferenz bringt die wichtigsten Player der globalen Energiewende zusammen</t>
+  </si>
+  <si>
+    <t>... mit der Reihe "Arbeiten in der Zukunft" / Dritter Teil:... Gut hören im Winter · Innovation "Made in Brandenburg": Aaron Troschke besichtigt eROCKIT-Produktion.</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/15347/4864647</t>
+  </si>
+  <si>
+    <t>Berliner Konferenz bringt die wichtigsten Player der globalen Energiewende zusammen*** Sperrfrist 16.3.2021, 9:00 Uhr MEZ ***Berliner Konferenz bringt die wichtigsten Player der globalen Energiewende zusammenTransatlantische Partnerschaft mit neuem Schwung zurückAußenminister Heiko Maas, Wirtschaftsminister Peter Altmaier und die Präsidentin der Europäischen Kommission, Ursula von der Leyen, eröffnen heute den 7.
+Es geht um Strategien für den intelligenten Umbau der Energiesysteme weltweit, um die Energiewende weiter entschlossen auf den Weg zu bringen.
+Erstmals beim BETD mit dabei sind der Klimasonderbeauftragte der neuen US-Regierung John Kerry und die US-Energieministerin Jennifer Granholm.
+In einem gemeinsamen Panel werden Wirtschaftsminister Altmaier, US-Klimasonderbeauftragter Kerry, der kanadische Umweltminister Seamus O’Regan, der italienische Außenminister Di Maio und die EU-Energiekommissarin Kadri Simson die Chancen einer neuen transatlantischen Zusammenarbeit bei der Energiewende ausloten.
+Mit der Energiewende und dem nahenden Ende des fossilen Zeitalters wird sich die Welt in den kommenden Jahrzehnten stark verändern.</t>
+  </si>
+  <si>
+    <t>"Deutschland sucht den Superstar": Das sind die 9 Live-Show-Kandidaten von DSDS</t>
+  </si>
+  <si>
+    <t>21 Mar 2021</t>
+  </si>
+  <si>
+    <t>Ab November gilt das neue Gebäudeenergiegesetz · Innovation "Made in Brandenburg": Aaron Troschke besichtigt eROCKIT-Produktion · Vollelektrischer Ford ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/7847/4869320</t>
+  </si>
+  <si>
+    <t>RTL Television GmbH"Deutschland sucht den Superstar": Das sind die 9 Live-Show-Kandidaten von DSDSBild-InfosDownloadKöln (ots)Da waren's nur noch 9!
+2,98 Millionen Zuschauer (MA: 9,8 %) sahen gestern das DSDS Recall-Finale und somit den Einzug der Top 9 Kandidaten in die Live-Shows.
+Mit sehr guten 15,2 Prozent Marktanteil bei den 14- bis 59-Jährigen (2,24 Mio.)
+18 Kandidaten kämpften gestern Abend bei "Deutschland sucht den Superstar" ein letztes Mal um den Einzug in die Live-Shows, die von Oliver Geissen moderiert werden, doch nur neun von ihnen haben es geschafft: Sie sind am kommenden Samstag, 27.
+März, 20.15 Uhr im DSDS-Halbfinale im Gebläsehallenkomplex im Landschaftspark Duisburg dabei.</t>
+  </si>
+  <si>
+    <t>"Mein Vater, unsere Lieblingsfilme und Ich": Der Podcast zu "Die Besten Filme aller Zeiten" bei Kabel Eins...</t>
+  </si>
+  <si>
+    <t>31 Mar 2021</t>
+  </si>
+  <si>
+    <t>Prominente wie Ruth Moschner, Matthias Distel alias Ikke Hüftgold und Aaron Troschke raten auch nächsten Sonntag um 20:15 Uhr in "Deutschlands ... mehr ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/7841/4878599</t>
+  </si>
+  <si>
+    <t>Kabel Eins"Mein Vater, unsere Lieblingsfilme und Ich": Der Podcast zu "Die Besten Filme aller Zeiten" bei Kabel Eins startet am OstersonntagBild-InfosDownloadUnterföhring (ots)Der eine ist die eine Hälfte des Duos Badesalz und damit einer der dienstältesten Comedians Deutschlands.
+Der andere ist der erfolgreiche Rapper Rockstah und ist seit etlichen Jahren einer der namhaftesten Podcaster der Republik.
+In der neuen, exklusiv auf der Audio-Plattform FYEO verfügbaren Podcast-Reihe "Mein Vater, unsere Lieblingsfilme und Ich" sprechen sie ab Ostersonntag über ein kulturelles Generationen-Thema - "Die Besten Filme aller Zeiten" bei Kabel Eins.
+Neben vielen anderen interessanten Hintergründen, amüsanten Anekdoten und Fun-Facts zu den "Besten Filmen aller Zeiten" bei Kabel Eins, schwärmen Vater und Sohn u.a.
+Die erste Podcast-Folge von "Mein Vater, unsere Lieblingsfilme und Ich - Der Kabel Eins Kultfilm-Podcast" ist ab Sonntag, 4.</t>
+  </si>
+  <si>
+    <t>Joyn produziert Personality-Show mit Aaron Troschke</t>
+  </si>
+  <si>
+    <t>DWDL</t>
+  </si>
+  <si>
+    <t>13 Apr 2021</t>
+  </si>
+  <si>
+    <t>Der einst durch "Wer wird Millionär?" bekanntgewordene Aaron Troschke ist heute ein erfolgreicher Youtuber, den es auch immer wieder ins Fernsehen zieht.</t>
+  </si>
+  <si>
+    <t>https://m.dwdl.de/a/82298</t>
+  </si>
+  <si>
+    <t>Joyn hat eine Personality-Show mit Aaron Troschke angekündigt.
+Produziert wird die Personality-Show von BAAM!
+Inhaltlich soll Troschke die neuesten Tops, Flops und Trend-Themen der Influencerinnen und Influencer unter die Lupe nehmen.
+Seine Personality-Show soll nun das klassische Fernsehen mit der digitalen Welt kombinieren, heißt es in der Ankündigung von Joyn.
+Wir werden einiges auf den Kopf stellen und besonders der erste Beitrag von Marvin wird die Influencer*innen kalt erwischen."</t>
+  </si>
+  <si>
+    <t>Rottweil in Kabel 1-Sendung - Sciene-Fiction-Testturm lässt Promis staunen</t>
+  </si>
+  <si>
+    <t>Schwarzwälder Bote</t>
+  </si>
+  <si>
+    <t>12 Apr 2021</t>
+  </si>
+  <si>
+    <t>Fernsehgesicht Aaron Troschke lüftet schließlich das Geheimnis und staunt wie die anderen nicht schlecht, als Beate Höhnle Einblicke in die Technik des ...</t>
+  </si>
+  <si>
+    <t>https://www.schwarzwaelder-bote.de/inhalt.rottweil-in-kabel-1-sendung-sciene-fiction-testturm-laesst-promis-staunen.1bb26fac-4602-493f-a280-42470c823b6b.html</t>
+  </si>
+  <si>
+    <t>Foto: Facebook/Kabel1Dass der Aufzugstestturm auf dem Berner Feld der Stadt Rottweil allerhand mediale Aufmerksamkeit beschert, hat sich am Wochenende wieder einmal gezeigt.
+Bei der Sendung "Die "größten Geheimnisse Deutschlands" auf Kabel 1 mussten mehr oder weniger bekannte "Promis" raten, was es mit diesem außergewöhnlichen Bauwerk im Süden Deutschlands auf sich hat.
+Ein Film über Rottweil und den sagenumwobenen Turm lässt zunächst vieles im Unklaren – und die Promis müssen währenddessen raten.
+Letztendlich heißt es "anschnallen bitte" und der Blick in einen Aufzugsschacht lässt die Kandidaten fast ein bisschen schwindlig werden.
+Staunen über die TechnikFazit der Kandidaten: In Rottweil geht’s zu wie im Science-Fiction Film.</t>
+  </si>
+  <si>
+    <t>Geheimnisvoll stark: "Deutschlands größte Geheimnisse" weiterhin erfolgreich mit 7,0 Prozent Marktanteil...</t>
+  </si>
+  <si>
+    <t>Im Anschluss konnte "Abenteuer Leben am Sonntag" mit hervorragenden 8,4 Prozent Marktanteil überzeugen. Prominente wie Ruth Moschner, Aaron Troschke ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/7841/4886150</t>
+  </si>
+  <si>
+    <t>Kabel EinsGeheimnisvoll stark: "Deutschlands größte Geheimnisse" weiterhin erfolgreich mit 7,0 Prozent Marktanteil bei Kabel EinsUnterföhring (ots)Deutschlands größte Geheimnisse" punktet erneut am Sonntagabend bei Kabel Eins: Starke 7,0 Prozent Marktanteil erzielte das neue vierteilige Factual-Ranking (Z.
+Im Anschluss konnte "Abenteuer Leben am Sonntag" mit hervorragenden 8,4 Prozent Marktanteil überzeugen.
+Prominente wie Ruth Moschner, Aaron Troschke und Peter Giesel rätseln nächsten Sonntag um 20:15 Uhr in "Deutschlands größte Geheimnisse" in der vierten Folge über die "erstaunlichsten 13".
+Basis: Marktstandard TVQuelle: AGF in Zusammenarbeit mit GfK | videoSCOPE | ProSiebenSat.1 TV Deutschland | Business IntelligenceErstellt: 12.04.2021 (vorläufig gewichtet: 11.04.2021)Pressekontakt:Dagmar BrandauCommunications &amp; PRNews, Sports, Factual &amp; Fictionphone: +49 (0) 89 95 07 - 2185email: Dagmar.Brandau@seven.oneOriginal-Content von: Kabel Eins, übermittelt durch news aktuell</t>
+  </si>
+  <si>
+    <t>Mit Youtube Geld verdienen: Ein Einblick in die Einnahmen ...</t>
+  </si>
+  <si>
+    <t>Galileo.tv</t>
+  </si>
+  <si>
+    <t>Der YouTuber Aaron Troschke geht auf seinem Kanal "Hey Aaron!!!" vergleichsweise offen mit seinen Finanzen um. In einem Video redet er über seine ...</t>
+  </si>
+  <si>
+    <t>https://www.galileo.tv/life/youtube-geld-verdienen-einnahmen-youtube/</t>
+  </si>
+  <si>
+    <t>Werbe-Videos vor, während oder nach dem eigentlichen Clip sind für Zuschauende eher zeitraubend.
+Für YouTuberinnen und YouTuber sind sie hingegen eine der wichtigsten Geldquellen.
+Je nach Thema oder Reichweite des YouTubers oder der YouTuberin kann dieser Betrag jedoch abweichen.
+Für zunächst einmal 1.000 Euro Einnahmen im Monat sind also schätzungsweise zwischen 500.000 und 1 Million Video-Aufrufe notwendig.
+Das wiederum bedeutet mehr ausgespielte Werbe-Clips - und somit letztlich mehr Einnahmen für die YouTuber:innen.</t>
+  </si>
+  <si>
+    <t>WWE-Knaller in Tampa Bay: Hier streiten sich die BILD-Reporter über WrestleMania</t>
+  </si>
+  <si>
+    <t>Bild.de</t>
+  </si>
+  <si>
+    <t>10 Apr 2021</t>
+  </si>
+  <si>
+    <t>Also wie bei uns Aaron Troschke, Bibi und die Lochis…“ WWE Universal Titel Match: Daniel Bryan vs. Roman Reigns vs. Edge. Enrico: „Das wird ein geiles Match.</t>
+  </si>
+  <si>
+    <t>https://www.bild.de/sport/mehr-sport/wrestling/wwe-knaller-in-tampa-bay-hier-streiten-sich-die-bild-reporter-ueber-wrestlemania-76018088.bild.html</t>
+  </si>
+  <si>
+    <t>Aber da ich bei fast allen Titelmatches auf die Herausforderer setze, glaube ich, dass New Day den Titel behalten.
+Natalya ist die Tochter von Anvil Neidhart, Tamina die Tochter von Jimmy Snuka.
+Er hat bisher alle Kämpfe gegen Big E verloren – er wird bei Mania gewinnen müssen.
+Der WWE ist zuzutrauen, dass die die Bellas tatsächlich zurückbringen und gleich die Titel gewinnen lassen.
+Auch wenn die WWE bei Edge für eine seltsame Entwicklung gesorgt hat und er jetzt ein Bösewicht ist, wird er sich den Titel holen.</t>
+  </si>
+  <si>
+    <t>Kabel Eins sucht schon Ende April nach "Sommertrends"</t>
+  </si>
+  <si>
+    <t>8 Apr 2021</t>
+  </si>
+  <si>
+    <t>Kommentare zu den BBQ-Trends liefern zum Auftakt Janine Pink, Aaron Troschke, Kai Böcking, Daniela Katzenberger, Eko Fresh, Sarah Bora, Sebastian Lege ...</t>
+  </si>
+  <si>
+    <t>https://m.dwdl.de/a/82224</t>
+  </si>
+  <si>
+    <t>NewsletterDWDL.jobsAktuell sind 583 Stellenanzeigen online, davon 272 in Köln, 82 in Berlin, 165 München und viele mehr in über 25 weiteren Städten.
+Anzeige schalten Anzeigen ansehen</t>
+  </si>
+  <si>
+    <t>Beelitz-Heilstätten - eines der grössten Geheimnisse ...</t>
+  </si>
+  <si>
+    <t>... wenn zahlreiche Prominente wie Ruth Moschner, Matthias Distel alias Ikke Hüftgold und Aaron Troschke versuchen „Deutschlands größte Geheimnisse“ zu ...</t>
+  </si>
+  <si>
+    <t>https://www.lifepr.de/inaktiv/hpg-projektentwicklungs-gmbh/Beelitz-Heilstaetten-eines-der-groessten-Geheimnisse-Deutschlands/boxid/842688</t>
+  </si>
+  <si>
+    <t>3 Schritte: Einscannen eines QR-Codes: Der Wegweiser zu Ihrer Pressemitteilung - ganz ohne tippen!
+Mit Hilfe der QR-Codes, die auf der Druckversion jeder Pressemeldung abgebildet sind, finden Sie jederzeit mit dem Handy auf die entsprechende Online-Seite der lifePR zurück - ohne die URL mühsam einzutippen.
+QR steht für Quick Response - mit einem Schritt kommen Sie schnell auf eine Webseite.
+QR-Codes funktionieren wie Strich-Codes, die Sie beispielsweise auf Ihrer Milchtüte finden.
+Eine Software entschlüsselt den QR-Code und führt Sie direkt auf eine Webseite - so brauchen Sie die Internetadresse nicht einmal zu kennen, um sie zu erreichen.</t>
+  </si>
+  <si>
+    <t>Helden am Limit: Kabel Eins dokumentiert den Alltag am Münchner "Klinikum rechts der Isar" - in einer...</t>
+  </si>
+  <si>
+    <t>6 Apr 2021</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/7841/4881786</t>
+  </si>
+  <si>
+    <t>Kabel EinsHelden am Limit: Kabel Eins dokumentiert den Alltag am Münchner "Klinikum rechts der Isar" - in einer neuen Staffel von "Die Klinik" ab 8.
+April um 20:15 UhrUnterföhring (ots)Aktuell, lokal, relevant: Die neue Staffel der Doku-Reihe "Die Klinik - Ärzte, Helfer, Diagnosen" zeigt unverstellt und hautnah den Krankenhausalltag im Münchner "Klinikum rechts der Isar" zu Pandemiezeiten.
+Kabel Eins zeigt die exklusiven Einblicke hinter die Kulissen eines der renommiertesten Krankenhäuser Deutschlands ab dem 8.
+"Die Klinik" wird im Auftrag von Kabel Eins produziert von Janus TV, die zuletzt auch Co-Produzent des erfolgreichen, siebenstündigen "Joko &amp; Klaas LIVE" auf ProSieben war.
+Die vierte Staffel von "Die Klinik - Ärzte, Helfer, Diagnosen" - ab dem 8.</t>
+  </si>
+  <si>
+    <t>Daniela Katzenberger, Aaron Troschke, Janine Pink und weitere Promis bereiten sich auf den Sommer vor - in...</t>
+  </si>
+  <si>
+    <t>22 Apr 2021</t>
+  </si>
+  <si>
+    <t>Daniela Katzenberger, Aaron Troschke, Janine Pink und weitere Promis bereiten sich auf den Sommer vor - in "Die Sommertrends 2021" ab 25. April 2021 ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/7841/4895869</t>
+  </si>
+  <si>
+    <t>Kabel EinsDaniela Katzenberger, Aaron Troschke, Janine Pink und weitere Promis bereiten sich auf den Sommer vor - in "Die Sommertrends 2021" ab 25.
+April 2021 sonntags um 20:15 Uhr bei Kabel EinsBild-InfosDownloadUnterföhring (ots)22.
+Daniela Katzenberger, Aaron Troschke, Janine Pink, Susan Sideropoulos, Joey Heindle, Eko Fresh, Janine Kunze und weitere Promis zeigen "Die Sommertrends 2021".
+April 2021 sonntags um 20:15 Uhr bei Kabel Eins.
+April 2021 sonntags um 20:15 Uhr bei Kabel Eins.</t>
+  </si>
+  <si>
+    <t>Vanessa Mai stinksauer nach Frauen-Beichte von Aaron Troschke</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>21 Apr 2021</t>
+  </si>
+  <si>
+    <t>Fand die Antwort von Aaron Troschke ganz schön frech: Sängerin Vanessa Mai. Das Bild zeigte sie am 21. April in ihrer Instagram-Story. Foto: instagram.com/ ...</t>
+  </si>
+  <si>
+    <t>https://www.express.de/news/promi-und-show/schlager/-was-nervt-dich---schlagerstar-vanessa-mai-stinksauer-nach-frauen-beichte-von-promi-38313542</t>
+  </si>
+  <si>
+    <t>Köln -Auweia: Schlagerstar Vanessa Mai (28) zeigte am Mittwochabend (21.
+April) Ausschnitte ihrer Youtube-Show „On Mai Way”, in der sie diesmal ein Interview auf einem Laufband mit Moderator und Promi-BB-Zweiter von 2014, Aaron Troschke führt.
+Vanessa Mai führt in „On Mai Way” Interview mit Aaron TroschkeEine Frauen-Frage an ihn ließ sie sauer werdenSie schmeißt etwas nach ihm, so überrascht war sie von seiner AntwortSeit dem November 2020 moderiert Vanessa Mai das Talkformat „On Mai Way” zusammen mit dem Südwestrundfunk für den Youtube-Kanal des Senders.
+Vanessa Mai sauer nach Antwort von Aaron Troschke auf die Frauen-FrageIn einem kurzen Ausschnitt in einer Insta-Story auf Vanessa Mais Profil ist zu sehen, wie die Sängerin ihn fragt, was ihn denn so an Frauen nerve.
+Seine freche Antwort: „Dass sie Schlager singen.” Vanessa Mai reißt erschrocken den Mund auf, wirft etwas nach dem Moderator und ruft laut: „Orrrr.”In einer weiteren Frage will Vanessa Mai von dem Berliner wissen: „Lieber vegan oder alkoholfrei?” Die Antwort von Troschke: „Vegan.</t>
+  </si>
+  <si>
+    <t>Vanessa Mai platzt der Kragen wegen Fan-Frage: „Geht euch einen Sche*** an!“</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>1 month ago</t>
+  </si>
+  <si>
+    <t>In der aktuellen Folge ist der YouTuber Aaron Troschke zu Gast. Dabei trug die Schlager-Sängerin eine weiße, enge Sportleggins und ein apricotfarbenes ...</t>
+  </si>
+  <si>
+    <t>https://www.tz.de/stars/vanessa-mai-instagram-story-aerger-wut-gewicht-koerper-saengerin-schlager-90479572.html</t>
+  </si>
+  <si>
+    <t>Vanessa Mai wehrt sich gegen fiese Fragen und KommentareIn ihrer eigenen SWR-Show „On Mai Way“ interviewt Vanessa Mai ihre Gäste, während sie sich sportlich auf einem Laufband betätigen.
+Daraufhin erhielt Vanessa Mai offenbar über die sozialen Netzwerke viele bösartige Kommentare zu ihrem Gewicht.
+Vanessa Mai wehrt sich gegen übergriffige Kommentare zu ihrem KörperDoch das ließ sich Mai nicht gefallen.
+„Nein, ich habe nicht zugenommen, und wenn doch, dann geht es euch einen Sche***!“ Und mit dieser klaren Ansage wehrte sich Vanessa Mai zurecht gegen das Body-Shaming.
+Und ein großer Teil der Nachrichten und Kommentare ist respektvoll und positiv formuliert.</t>
+  </si>
+  <si>
+    <t>Von Personality-Show über Dating-Experiment und -Bootcamp bis hin zu Sport-Events: Die Highlights im Mai...</t>
+  </si>
+  <si>
+    <t>27 Apr 2021</t>
+  </si>
+  <si>
+    <t>Mai führt Social-Media-Star Aaron Troschke durch seine eigene Personality-Show "ACHTUNG AARON!" und nimmt dabei so manchen Social-Media-Trend ...</t>
+  </si>
+  <si>
+    <t>https://www.presseportal.de/pm/134520/4900110</t>
+  </si>
+  <si>
+    <t>JoynVon Personality-Show über Dating-Experiment und -Bootcamp bis hin zu Sport-Events: Die Highlights im Mai auf Joyn und bei Joyn PLUS+Bild-InfosDownloadMünchen (ots)Der Streaming-Frühling startet mit frischem Content: Gleich drei Joyn Originals und jede Menge sportlicher Highlights prägen den Mai auf Joyn.
+Vielfältige Sport-Highlights im Mai auf JoynFußball, Radsport, Motorsport, Eishockey oder Tennis - im Mai erwarten Sport-Fans eine große Auswahl an Events auf Joyn.
+Über Red Bull TV sind darüber hinaus zwei Rennen des UCI Mountain Bike World Cups auf Joyn zu sehen.
+Mai und alle Begegnungen sind über Eurosport 1 und 2 sowie zusätzlichen Event-Livestreams bei Joyn PLUS+ zu sehen, ausgewählte Begegnungen davon kostenlos auf Joyn.
+Weitere Highlights im Mai auf Joyn und bei Joyn PLUS+Auf dem eigenen US-Fiction-Sender Primetime bietet Joyn im Mai die Fortsetzung einer weiteren großartigen Serie: "Homeland" kehrt ab dem 8.</t>
+  </si>
+  <si>
+    <t>«Grill den Henssler» auch ohne Promi-Gäste auf gutem Niveau</t>
+  </si>
+  <si>
+    <t>19 Apr 2021</t>
+  </si>
+  <si>
+    <t>... Mal rätselten bei Kabel Eins in der Show «Deutschlands größte Geheimnisse» prominente Gäste wie Ruth Moschner, Ikke Hüftgold und Aaron Troschke.</t>
+  </si>
+  <si>
+    <t>https://www.quotenmeter.de/n/126258/grill-den-henssler-auch-ohne-promi-gaeste-auf-gutem-niveau</t>
+  </si>
+  <si>
+    <t>Quotennews«Grill den Henssler» auch ohne Promi-Gäste auf gutem NiveauLaura Friedrich von 19.
+Auf Wunsch der Zuschauer wagten sich gestern bei «Grill den Henssler» zum ersten Mal nicht prominente Gäste an den Herd.
+0,86 Millionen Fernsehende blieben im Anschluss noch für das Magazin «Prominent!» auf dem Sender, wodurch der Marktanteil auf starke 7,6 Prozent wuchs.
+Auch hier wurde eine hohe Quote von 8,2 Prozent gemessen.Aus Quotensicht war die Kochshow auch mit den unbekannten Gästen erfolgreich.
+Zuschauer ab 3 Jahren und 14-49 Jahre (Vorläufige Daten), BRD gesamt/ Fernsehpanel D+EU Millionen und Marktanteile in %.</t>
+  </si>
+  <si>
+    <t>Ab 19. April: Neue Folgen "Das Internat" kostenlos auf Joyn ...</t>
+  </si>
+  <si>
+    <t>DSLWeb</t>
+  </si>
+  <si>
+    <t>16 Apr 2021</t>
+  </si>
+  <si>
+    <t>Bereits für den 06. Mai hat Joyn das nächste Projekt in der Pipeline: Nach seinem Wirken in dem Joyn Original Shame Game, führt YouTuber Aaron Troschke nun ...</t>
+  </si>
+  <si>
+    <t>https://www.dslweb.de/news/tv/ab-19-april-neue-folgen-das-internat-kostenlos-auf-joyn-streamen.php</t>
+  </si>
+  <si>
+    <t>Das Format mit Sonya Kraus und Bekanntheiten aus dem Social Media Bereich ist kostenlos auf Joyn abrufbar.
+Das Internat kostenlos bei Joyn streamenStarttermin der zweiten Staffel des Comedy-Formats ist der 19.
+Dabei erscheint die Fortsetzung nun mit doppelter Episoden-Power: Während Das Internat mit 12 Episoden startete, bringt Staffel 2 ganze 24 Folgen auf die Bildschirme.
+Starke Influencer-Besetzung in weiteren Joyn SerienErneut ist Das Internat mit Top-Influencern, wie Mario Novembre, Nathan Goldblat oder Channy Dakota, besetzt.
+Anschließend präsentiert der Streaming Dienst schon Ende Mai die Joyn Serie Gewitter im Herz mit den YouTubern Gewitter im Kopf.</t>
+  </si>
+  <si>
+    <t>Vanessa Mai wehrt sich gegen Körper-Kritik: «Geht euch Scheiss an!»</t>
+  </si>
+  <si>
+    <t>Nau</t>
+  </si>
+  <si>
+    <t>28 Apr 2021</t>
+  </si>
+  <si>
+    <t>In der neusten Folge des Formats macht die 28-Jährige in silberfarbenen Glitzer-Leggins neben Gast Aaron Troschke (31) eine gute Figur. Vanessa Mai: «Geht ...</t>
+  </si>
+  <si>
+    <t>https://www.nau.ch/people/welt/vanessa-mai-wehrt-sich-gegen-korper-kritik-geht-euch-scheiss-an-65915582</t>
+  </si>
+  <si>
+    <t>Einige Zuschauer schicken der Sängerin allerdings fiese Kommentare zu ihrem Aussehen.
+Nun hat Vanessa Mai die Nase voll!
+Auf die Frage, ob sie zugenommen hat, tobt sie: «Wenn ich noch einen Kommentar lese, der sagt, ich hätte zugenommen und sie hätten sich erschrocken, wie meine Schenkel aussehen …»</t>
+  </si>
+  <si>
+    <t>Jasmin Wagner: Die Gründe für ihr Ehe-Aus</t>
+  </si>
+  <si>
+    <t>OK! Magazin</t>
+  </si>
+  <si>
+    <t>18 Apr 2021</t>
+  </si>
+  <si>
+    <t>Doch was führte zu dem Ehe-Aus? Jetzt macht Jasmin reinen Tisch! Mehr über Jasmin Wagner: Jasmin Wagner &amp; Aaron Troschke: "Hattest du ein Blümchen- ...</t>
+  </si>
+  <si>
+    <t>https://www.ok-magazin.de/people/news/jasmin-wagner-die-wahrheit-ueber-ihr-ehe-aus-70684.html</t>
+  </si>
+  <si>
+    <t>Jetzt spricht sie offen und ehrlich über die Gründe.
+Jasmin Wagner schockte zum letzten Weihnachtsfest ihre Fans mit einer Neuigkeit:Jasmin Wagner schockte zum letzten Weihnachtsfest ihre Fans mit einer Neuigkeit:Über zehn Jahre waren Jasmin Wagner, 40, alias "Blümchen" und der Unternehmer Frank Sippel, 48, zusammen.
+Jetzt spricht die Sängerin über die Trennungsgründe.
+Jasmin Wagner: Liebes-Aus nach fünf Jahren EheBereits im Sommer letzten Jahres kamen die ersten Gerüchte über eine mögliche Trennung von Jasmin Wagner und Frank Sippel auf.
+Im RTL-Interview sprach Jasmin Wagner erneut über ihre Trennung.</t>
+  </si>
+  <si>
+    <t>watson-super-Serienguide: Netflix bis Sky – Streaming-Hits für die 1. Maiwoche</t>
+  </si>
+  <si>
+    <t>watson</t>
+  </si>
+  <si>
+    <t>Aaron Troschke, der sich bereits bei Youtube mit seinem Channel "Hey Aaron!!!" einen Namen – und mehr als eine Million Abonnenten – gemacht hat, ist dabei ...</t>
+  </si>
+  <si>
+    <t>https://www.watson.de/unterhaltung/streaming/965631344-watson-super-serienguide-netflix-bis-sky-streaming-hits-fuer-die-1-maiwoche</t>
+  </si>
+  <si>
+    <t>UnterhaltungStreamingwatson-super-Serienguide: Netflix bis Sky – Streaming-Hits für die 1.
+MaiwocheBild: IMAGO / Cinema Publishers Collectionwatson-super-Serienguide: Netflix-, Amazon-, Disney+- und Sky-Highlights für die 1.
+MaiwocheJedes Wochenende gibt es für euch die besten Empfehlungen für Netflix, Amazon Prime, Sky, Joyn und MagentaTV in unserem ultimativen Streaming-Guide – von den spannendsten Serien-Neustarts bis zu versteckten Juwelen.
+Wir haben die besten Streaming-Empfehlungen für die Woche vom 30.
+Darin nimmt er die Trend-Themen aus der Welt der Influencer unter die Lupe und bewertet Tops und Flops.</t>
+  </si>
+  <si>
+    <t>"Black Panther"-Gerüchte: Digitale Rückkehr von Chadwick Boseman</t>
+  </si>
+  <si>
+    <t>FILM.TV</t>
+  </si>
+  <si>
+    <t>... Achtung Aaron: Neue Show mit Aaron Troschke bei Joyn · Pretty Little Liars: Wer ist A? Justus von Dohnanyi Interview zu Yoko · Resident Evil 6 - Erstes Video ...</t>
+  </si>
+  <si>
+    <t>https://www.film.tv/nachrichten/2021/black-panther-geruecht-toter-chadwick-boseman-als-tchalla-im-film.html</t>
+  </si>
+  <si>
+    <t>Von Fynn SehneNach dem Tod von Hauptdarsteller Chadwick Boseman muss die Show irgendwie weiter gehen.
+"Black Panther" konnte 2018 nicht zuletzt dank Hauptdarsteller Chadwick Boseman ein Riesenerfolg werden.
+Umso tragischer war es, als Hauptdarsteller Chadwick Boseman im August 2020 verstarb.
+Boseman fehle sehr und bedeutete dem Cast und der Crew von "Black Panther" viel.
+Bis wir "Black Panther" endlich sehen können, müssen wir uns noch in Geduld üben.</t>
+  </si>
+  <si>
+    <t>Neue Show Achtung Aaron! - Aaron Troschke: Günther Jauch habe ich meine Karriere zu verdanken</t>
+  </si>
+  <si>
+    <t>Stuttgarter Nachrichten</t>
+  </si>
+  <si>
+    <t>YouTuber Aaron Troschke startet mit "Achtung Aaron!" eine eigene Personality-TV-Show. Im Interview erklärt der ehemalige "Wer wird Millionär?"-Kandidat: ...</t>
+  </si>
+  <si>
+    <t>https://www.stuttgarter-nachrichten.de/inhalt.neue-show-achtung-aaron-aaron-troschke-guenther-jauch-habe-ich-meine-karriere-zu-verdanken.d2bf593b-c90e-40e1-958f-8f7dc79d2034.html</t>
+  </si>
+  <si>
+    <t>Zudem erzählt er, warum sein Traum von einem Job beim Musiksender VIVA geplatzt ist und wofür er Günther Jauch (64) heute dankbar ist.
+Jetzt meine eigene Sendung zu moderieren, das ist der Hammer.
+Es ist nicht mehr nur in meiner kleinen Welt in meinem kleinen Team, sondern viel größer.
+Das große Studio, 20 Leute am Set, das ist so wie ich es mir immer vorgestellt habe.
+Wir schreiben uns ab und an E-Mails und ich kann nur immer wieder sagen: Ohne ihn würde es Aaron nicht geben, "Hey Aaron" nicht und somit auch "Achtung Aaron!"</t>
+  </si>
+  <si>
+    <t>Aaron Troschke: Seine Karriere verdankt er Günther Jauch</t>
+  </si>
+  <si>
+    <t>GALA.de</t>
+  </si>
+  <si>
+    <t>th · 1 month ago</t>
+  </si>
+  <si>
+    <t>Aaron Troschke (31) erfüllt sich mit seiner eigenen Personality-TV-Show "Achtung Aaron!" (ab 6. Mai 2021 immer donnerstags und samstags auf Joyn) einen ...</t>
+  </si>
+  <si>
+    <t>https://www.gala.de/stars/interview/aaron-troschke--seine-karriere-verdankt-er-guenther-jauch-22439772.html</t>
+  </si>
+  <si>
+    <t>Aaron Troschke: Das denkt der YouTube-Star über Influencer!</t>
+  </si>
+  <si>
+    <t>TV Movie</t>
+  </si>
+  <si>
+    <t>Auf seinem YouTube-Kanal "Hey Aaron", der inzwischen mehr als 1,2 Millionen Abonnenten hat, treibt der 31-Jährige regelmäßig Schabernack mit Deutschlands ...</t>
+  </si>
+  <si>
+    <t>https://www.tvmovie.de/news/aaron-troschke-das-denkt-der-youtube-star-ueber-influencer-118141</t>
+  </si>
+  <si>
+    <t>Auf seinem YouTube-Kanal "Hey Aaron", der inzwischen mehr als 1,2 Millionen Abonnenten hat, treibt der 31-Jährige regelmäßig Schabernack mit Deutschlands bekanntesten Influencern.
+Laura Müller und Michael Wendler haben es zusammen... Mehr lesen »Aaron: Das denkt der "Hey Aaron!!!
+"Es gibt natürlich immer schwarze Schafe – aber das ist doch überall so: In der TV-Branche gibt es coole Leute und es gibt dumme Leute, es gibt bei der Polizei gute Polizisten und es gibt Arschgeigen.
+Das gibt es selbst an der Kasse im Supermarkt."
+Seit Wochen... Mehr lesen »Aaron Troschke: Neue Show "AACHTUNG AARON" auf JoynUnd was rät Aaron den jungen Leuten, die davon träumen, selbst über das Internet berühmt zu werden?</t>
+  </si>
+  <si>
+    <t>Bei "Achtung Aaron!" geben sich die Influencer die Kante!</t>
+  </si>
+  <si>
+    <t>Promiflash</t>
+  </si>
+  <si>
+    <t>Mai 2021, 13:30 - Paul Henning S. Ist das die Geheimzutat? Aaron Troschke (31) startete in dieser Woche in seine neue Joyn-Show "Achtung Aaron ...</t>
+  </si>
+  <si>
+    <t>https://www.promiflash.de/news/2021/05/09/bei-achtung-aaron-geben-sich-die-influencer-die-kante.html</t>
+  </si>
+  <si>
+    <t>Ist das die Geheimzutat?
+Aaron Troschke (31) startete in dieser Woche in seine neue Joyn-Show "Achtung Aaron!".
+In seinen YouTube-Videos gelang ihm das oft mit Alkohol: Ob bei Preisverleihungen oder am Serie-Set – Aaron hat gerne einen guten Tropfen dabei, um die Zungen zu lösen!
+AnzeigeJoyn / Fernsehmacher / Markus Hertrich Aaron Troschke und Marvin Wildhage am Set von "Achtung Aaron!"
+AnzeigeInstagram / aarontroschke Mrs. Bella und Aaron Troschke im Mai 2021AnzeigeInstagram / aarontroschke Aaron Troschke im Dezember 2019AnzeigeGlaubt ihr, dass Aaron seinen Gästen ganz besondere Infos entlocken wird?</t>
+  </si>
+  <si>
+    <t>Aaron Troschke eröffnet Kiosk in Berlin!</t>
+  </si>
+  <si>
+    <t>BZ Berlin</t>
+  </si>
+  <si>
+    <t>Schließlich verkaufte Troschke das „Back&amp;Snack“, um sich auf seine mediale Karriere zu konzentrieren. Seinem Youtube-Kanal „Hey Aaron“ folgten bald mehr ...</t>
+  </si>
+  <si>
+    <t>https://www.bz-berlin.de/berlin/pankow/aaron-troschke-eroeffnet-kiosk-in-berlin</t>
+  </si>
+  <si>
+    <t>Im Kiez kannte man ihn schon lange als sympathischen Späti-Chef mit der Berliner Schnauze.
+Statt Späti plant Troschke den Laden nun als Kiosk – mit Öffnungszeiten von 5 bis 18 Uhr.
+Zeige sich ein Kunde jedoch einverstanden und habe Lust auf eine kleine Showeinlage, würden weitere Kameras eingeschaltet.
+„Pietro Lombardi und Micaela Schäfer haben schon angekündigt, hier ein Praktikum absolvieren zu wollen.“Zu Günther Jauch habe Troschke immer noch Kontakt.
+„Ab und zu schreiben wir uns eine E-Mail“, sagt der Ex-Kandidat.</t>
+  </si>
+  <si>
+    <t>"ACHTUNG AARON": YouTube-Star Aaron Troschke im Interview zu neuer Show</t>
+  </si>
+  <si>
+    <t>Mit 1,2 Millionen Abonnenten auf seinem Kanal "Hey Aaron!!!" ist Aaron Troschke einer der ganz großen YouTube-Stars in Deutschland. Doch auch im Fernsehen ...</t>
+  </si>
+  <si>
+    <t>https://www.tvmovie.de/news/achtung-aaron-youtube-star-aaron-troschke-im-interview-zu-neuer-show-118138</t>
+  </si>
+  <si>
+    <t>Bei uns kommen im Gegensatz zu anderen die Influencer selbst zu Wort.
+Einfach Leute, die zu der Zeit gerade interessant sind – wir wissen ja noch nicht, was alles so passieren wird.
+Durch unsere Technik haben wir die Möglichkeit, tolle Schalten zu machen und jeden direkt in die Sendung zu holen.
+TVMovie.de: Dein Sidekick in der Show ist der YouTuber Marvin Wildhage.
+TVMovie.de: In deiner letzten Sendung auf Joyn, "Shame Game", hast du deine Kollegen ja gerne mal mit fiesen Aufgaben auf die Schippe genommen.</t>
+  </si>
+  <si>
+    <t>Langenlipsdorf: Youtuber Aaron Troschke besucht Unternehmen</t>
+  </si>
+  <si>
+    <t>Der Internetstar besuchte in Langenlipsdorf den Spielgeräte-Hersteller SIK-Holz und die eROCKIT Systems GmbH. Geschäftsführer Marc Oelker zeigte ihm das ...</t>
+  </si>
+  <si>
+    <t>https://www.maz-online.de/Lokales/Teltow-Flaeming/Langenlipsdorf-Youtuber-Aaron-Troschke-besucht-Unternehmen</t>
+  </si>
+  <si>
+    <t>LangenlipsdorfMinister- und Bundespräsident stehen, wie viele andere Prominente, auf der Besucherliste des Langenlipsdorfer Spielgeräte-Herstellers SIK-Holz.</t>
+  </si>
+  <si>
+    <t>Besser als TV? Darum liebt Aaron Troschke YouTube so sehr</t>
+  </si>
+  <si>
+    <t>Darum liebt Aaron Troschke YouTube so sehr. 12. Mai 2021, 12:12 - Paul Henning S. Sieht man ihn bald öfter im Fernsehen? Aaron ...</t>
+  </si>
+  <si>
+    <t>https://www.promiflash.de/news/2021/05/12/besser-als-tv-darum-liebt-aaron-troschke-youtube-so-sehr.html</t>
+  </si>
+  <si>
+    <t>Aaron Troschke (31) begann seine Karriere als Kandidat bei Wer wird Millionär?.
+"Ich muss persönlich mal sagen: Ich find YouTube ja sehr geil, denn da kann ich machen, was ich will", erklärte Aaron seine Vorliebe für das Webmedium.
+Ich habe schnell mitgekriegt, dass ich mit meiner Ansprechpartnerin bei Joyn auf einer Wellenlänge bin, und deswegen habe ich zugesagt."
+AnzeigeJoyn / Fernsehmacher / Markus Hertrich Aaron Troschke und Marvin Wildhage am Set von "Achtung Aaron!"
+AnzeigeInstagram / aarontroschke Aaron Troschke im April 2021AnzeigeActionPress Aaron Troschke, YouTuberAnzeigeKönnt ihr Aaron in diesem Punkt verstehen?</t>
+  </si>
+  <si>
+    <t>ACHTUNG AARON! Influencer-Show ab 6. Mai bei Joyn</t>
+  </si>
+  <si>
+    <t>1 Media und Discovery lädt Aaron Troschke Sie ab Anfang Mai zweimal pro Woche in sein Jugendzimmer ein. In der neuen Joyn-Show ACHTUNG AARON!</t>
+  </si>
+  <si>
+    <t>https://www.focus.de/digital/achtung-aaron-jetzt-bei-joyn-social-media-star-entfuehrt-sie-in-die-welt-der-influencer-streamen-sie-die-show-kostenlos-ab-6-mai-bei-joyn_id_13250084.html</t>
+  </si>
+  <si>
+    <t>Gesponsert JoynAuf Joyn, dem Streaming-Dienst von ProSiebenSat.1 Media und Discovery lädt Aaron Troschke Sie ab Anfang Mai zweimal pro Woche in sein Jugendzimmer ein.
+In der neuen Joyn-Show ACHTUNG AARON!
+In seiner Personality-Show „ACHTUNG AARON!“ kommentiert er die jüngsten Ereignisse aus der Welt der Influencer – und das auf die ihm eigene humorvolle Art.
+In der ersten Folge „ACHTUNG AARON!“ ist YouTube-Star Dagi Bee (@dagibee) zu Gast und wird gemeinsam mit Aaron die großen Themen dieser Zeit besprechen.
+Mai 2021 zwei Folgen „ACHTUNG AARON!“ pro Woche, insgesamt 16 Episoden.</t>
+  </si>
+  <si>
+    <t>Gestrafftes Gesicht? Schlagersängerin Vanessa Mai kontert Fan-Kritik</t>
+  </si>
+  <si>
+    <t>... schon Ross Antony, Claudia Obert, Ikke Hüftgold oder Aaron Troschke. ... dem Youtuber Aaron Troschke auf dem Sportgerät stand und ihm Fragen stellte, trug ...</t>
+  </si>
+  <si>
+    <t>https://www.watson.de/unterhaltung/prominente/558531936-gestrafftes-gesicht-schlagersaengerin-vanessa-mai-kontert-fan-kritik</t>
+  </si>
+  <si>
+    <t>Schlagersängerin Vanessa Mai kontert Fan-KritikBild: Getty Images Europe / Thomas NiedermuellerFan-Kritik an Vanessa Mais Gesicht – Sängerin zeigt deutlich, was sie davon hältVanessa Mai hat offensichtlich eine neue Strategie gefunden, mit Fan-Kritik an ihrem Aussehen umzugehen.
+Seit November vergangenen Jahres macht sich Vanessa nicht mehr nur als Sängerin und Influencerin, sondern auch als Interviewerin einen Namen.
+Vanessa Mai setzt Fan-Vermutungen Filter entgegenEin Kommentator auf Youtube suchte offenbar Gleichgesinnte zum Thema Vanessas Gesicht und schrieb: "Hat die sich irgendwie was im Gesicht machen lassen?
+Bild: Screenshot / Instagram / vanessa.maiPrompt reagierte Vanessa auf die Behauptungen – allerdings rastete sie nicht aus und wies auch nicht alles von sich.
+Vanessa Mai rastete auch schon wegen Fan-Kommentaren ausErst kürzlich ging sie das Problem noch weitaus offensiver an.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,24 +1178,33 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -253,7 +1246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,9 +1278,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,6 +1330,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,14 +1523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -553,7 +1584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -579,7 +1610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -605,7 +1636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -631,12 +1662,1500 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44339.812773345788</v>
+      </c>
+      <c r="F42" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44339.812773589743</v>
+      </c>
+      <c r="F48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="3">
+        <v>44339.813021872789</v>
+      </c>
+      <c r="F50" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D51" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" s="3">
+        <v>44339.813062930552</v>
+      </c>
+      <c r="F51" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44339.813063030007</v>
+      </c>
+      <c r="F52" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="3">
+        <v>44339.813063094458</v>
+      </c>
+      <c r="F53" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44339.813063172587</v>
+      </c>
+      <c r="F54" t="s">
+        <v>277</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="3">
+        <v>44339.81306327007</v>
+      </c>
+      <c r="F55" t="s">
+        <v>281</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="3">
+        <v>44339.813063328183</v>
+      </c>
+      <c r="F56" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44339.813063428373</v>
+      </c>
+      <c r="F57" t="s">
+        <v>289</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="3">
+        <v>44339.813063498659</v>
+      </c>
+      <c r="F58" t="s">
+        <v>293</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44339.813063569258</v>
+      </c>
+      <c r="F59" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{23FB4C01-6EA4-4B54-AF23-D82C794AF9BD}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{A9ABF2EF-1C25-401A-979E-863125EA0392}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{864A1878-0C55-431B-AF98-6EBC8632BFE3}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{161A2D91-E141-4574-A874-C1D4ADCFE3BF}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{B67FBB26-5F8A-4414-85AA-7F77A43BD4BE}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{80BBB0FC-6E7C-4CDA-8883-16FD757DC8D8}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{8E98FB09-26A1-4BC8-A3FD-3611270AA221}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{136EF8C1-C892-47D5-AB58-C0D5BE222BD0}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{CA978FC5-C01C-4219-B9FC-EE173E730B40}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{CF8B8F42-4C28-49BF-B7F1-9906D5781711}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{79D23753-CF88-49DD-99D7-3B2EFBBC1B9B}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{69578905-04AA-4CAF-82AD-ADF85924F4CF}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{531FAFDC-BB72-4018-8ACC-393D9BEEE033}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{7585DB32-22F7-4D86-8A2F-59DB3F39D5F5}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{F6C391AD-0942-42B8-848E-F8FDC6832088}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{7CF0296A-DE77-461C-8B25-78D57966E246}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{3A36E420-26B2-4C68-BED6-787CB42339DD}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{ABEDC3FC-CA76-4CD4-A2A8-036D716E1402}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{CAC53AC5-0561-4233-B057-09B90BD91C0F}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{4D996E86-20EF-4502-B259-93A538F59BD4}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{C7FE87CA-C290-49D9-9B49-D46CDF56EBF9}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{B046F0E1-AB27-4BA5-8490-53BB47E7DE7A}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{2375CDE6-BF1B-4243-B866-187061D13365}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{E016935F-3DC4-4ED2-A8BE-955D734F947F}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{8BC6883E-9A66-43D0-8361-8FD06CF9EC15}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{3239CE07-B945-40B8-9EC8-71DFB560F1C0}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{BA67F6DB-9071-4599-8DF9-09C0D8DDE5DD}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{C96D505E-D06F-4DE4-BBBF-93ED03E14744}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{CE1FCE6C-78D1-42C0-8547-18D7A2051D36}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{33704D2F-B082-422C-A7EF-4891E03645C5}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{36977C22-33C4-406E-BB0B-93F075071938}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{5852CECA-D6EC-4E3A-94AB-718C45EC1AA2}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{634A4D84-F659-4352-8758-A00446C1F96F}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{03C4BBBF-E0FA-4AB7-86EE-342A9951AEE0}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{051FFE75-BD80-4E76-B4C1-CCF7FFEDE879}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{A0DD703E-9B10-4463-9DF6-11054893D782}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{27307AD1-555C-4370-87C7-E540DD9F0830}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{5686268B-8A6C-451C-BBAC-2FB88689888B}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{AE6D62CA-E461-4DAA-AE5A-FD2DCCEB6754}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{89721FD1-DA70-4715-A84D-2B7E1EDFBD03}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{4E6167C8-E5C5-491E-B2C7-BF84C844C716}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{7DE0F191-5F68-43E5-9D21-0E2E9F1542C5}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{46D2BFE2-9147-4B8B-9880-88F56FDF42C7}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{59AF23F4-0AB6-43B0-B67F-DBD97296F1C9}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{A807FFE6-9492-418B-A43E-4E82DFBD11AE}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{DE0FADC1-EB49-4B26-A745-ED89AEF389AC}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{8FA0BF30-C4CB-41A3-98ED-14C37F04F51B}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{7FC84F2E-FB48-4A68-BD52-72B89B023A00}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{3E0CED54-5C68-4B7D-BE46-9DB190A7C9DB}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{E180BE36-A5FF-4A12-ACBB-EF273405340E}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{B74828E1-0FE2-4626-8290-E167D5D14772}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{FB7BBB01-74D8-4218-9DAF-95E0F5C1F892}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{33C4E19D-060F-4141-B45E-193946188F9B}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{3E77821C-A2CD-4C89-AB77-35161BEEADBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
